--- a/neat_ml_schema/project/excel/neat_ml_schema.xlsx
+++ b/neat_ml_schema/project/excel/neat_ml_schema.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="24" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="26" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="ApplyTrainedModel" sheetId="1" state="visible" r:id="rId1"/>
@@ -17,21 +17,23 @@
     <sheet name="ClassifierParams" sheetId="8" state="visible" r:id="rId8"/>
     <sheet name="EmbeddingsConfig" sheetId="9" state="visible" r:id="rId9"/>
     <sheet name="EnsmallenRunConfig" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="GraphDataConfiguration" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="Layer" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="LayerContainer" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="LayerParams" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="Metric" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="MetricContainer" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet name="NeatConfiguration" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet name="NodeEmbeddingsParams" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet name="NodeType" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet name="PosNegData" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet name="SkLearnParams" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet name="Target" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet name="TFKerasParams" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet name="TrainValidData" sheetId="24" state="visible" r:id="rId24"/>
-    <sheet name="Upload" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet name="FileResource" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="FileResourceContainer" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="GraphDataConfiguration" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="Layer" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="LayerContainer" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="LayerParams" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="Metric" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="MetricContainer" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="NeatConfiguration" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet name="NodeEmbeddingsParams" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet name="NodeType" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet name="PosNegData" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet name="SkLearnParams" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet name="Target" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet name="TFKerasParams" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet name="TrainValidData" sheetId="26" state="visible" r:id="rId26"/>
+    <sheet name="Upload" sheetId="27" state="visible" r:id="rId27"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -940,21 +942,83 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
+          <t>fileResource__path</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>fileResource__desc</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>fileResourceContainer__files</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
           <t>graphDataConfiguration__graph</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>graphDataConfiguration__data</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+          <t>graphDataConfiguration__evaluation_data</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>graphDataConfiguration__source_data</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -985,7 +1049,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1011,7 +1075,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1052,7 +1116,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1088,7 +1152,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1114,7 +1178,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1140,7 +1204,33 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>applyTrainedModelsContainer__models</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1201,7 +1291,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1232,7 +1322,69 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>posNegData__pos_edge_filepath</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>posNegData__neg_edge_filepath</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>skLearnParams__random_state</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>skLearnParams__max_iter</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1249,94 +1401,6 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>applyTrainedModelsContainer__models</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>posNegData__pos_edge_filepath</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>posNegData__neg_edge_filepath</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>skLearnParams__random_state</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>skLearnParams__max_iter</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
           <t>target__target_path</t>
         </is>
       </c>
@@ -1346,7 +1410,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1397,7 +1461,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1428,7 +1492,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
